--- a/otherdoc/table設計.xlsx
+++ b/otherdoc/table設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gittest\tamairefile\otherdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\otherdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>login_name</t>
     <phoneticPr fontId="1"/>
@@ -172,6 +172,37 @@
   </si>
   <si>
     <t>いいね</t>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -504,29 +535,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="27.58203125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -534,7 +589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -542,7 +597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -550,7 +605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -558,7 +613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -566,7 +621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -574,17 +629,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -592,7 +647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -600,7 +655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -608,7 +663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>

--- a/otherdoc/table設計.xlsx
+++ b/otherdoc/table設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\otherdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gittest\tamairefile\otherdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>login_name</t>
     <phoneticPr fontId="1"/>
@@ -35,18 +35,6 @@
   </si>
   <si>
     <t>user_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_old</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_sex</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_tel</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -129,16 +117,6 @@
   <si>
     <t>表示される名前</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示されないユーザの年齢</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示されないユーザの性別</t>
-  </si>
-  <si>
-    <t>表示されないユーザの電話番号</t>
   </si>
   <si>
     <t>スレッドの名前</t>
@@ -535,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -550,35 +528,35 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -586,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -594,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -602,49 +580,49 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -652,81 +630,57 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
+      <c r="B18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/otherdoc/table設計.xlsx
+++ b/otherdoc/table設計.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>login_name</t>
     <phoneticPr fontId="1"/>
@@ -34,15 +34,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>thread_list</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -64,10 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>table_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>thread_theme</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -76,21 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>thread_author</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>thread_form</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個々のスレッド</t>
-    <rPh sb="0" eb="2">
-      <t>ココ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>res_no</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -103,10 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>likes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインのための名前</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -122,21 +91,10 @@
     <t>スレッドの名前</t>
   </si>
   <si>
-    <t>データベースのテーブルの名前</t>
-  </si>
-  <si>
     <t>スレッドのテーマ</t>
   </si>
   <si>
     <t>スレッドの総アクセス数</t>
-  </si>
-  <si>
-    <t>スレッドの作成者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスの番号</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レスの投稿者</t>
@@ -180,6 +138,261 @@
   </si>
   <si>
     <t>DEFAULT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終更新日</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_thread_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの投稿日時</t>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドを識別する</t>
+    <rPh sb="5" eb="7">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y(user_table.user_name)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y(thread_list.thread_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR5</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6文字以上</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5文字以上</t>
+    <rPh sb="1" eb="5">
+      <t>モジイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sysdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread_description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド詳細説明</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの内容を格納する</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_identityno</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド毎の数字</t>
+    <rPh sb="4" eb="5">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000件まで</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表を作る</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_likes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread_last_updated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JAVAで日時を取得</t>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -513,174 +726,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="27.58203125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>2048</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="J30">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="K30" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/otherdoc/table設計.xlsx
+++ b/otherdoc/table設計.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>login_name</t>
     <phoneticPr fontId="1"/>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Y(thread_list.thread_id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -357,20 +353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表を作る</t>
-    <rPh sb="0" eb="1">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>res_likes</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -393,6 +375,59 @@
     <rPh sb="8" eb="10">
       <t>シュトク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theme_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y(thread_table.thread_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー　属性</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y(theme_table.theme_attribute)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theme_detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーマの詳細</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>theme_attribute</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -726,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -741,7 +776,7 @@
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
         <v>21</v>
       </c>
@@ -767,20 +802,20 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -788,7 +823,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -797,7 +832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -805,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -817,7 +852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -825,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>16</v>
@@ -834,18 +869,18 @@
         <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -857,7 +892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -865,20 +900,20 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -886,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -895,7 +930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -903,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -915,27 +950,27 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -943,13 +978,13 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -957,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -965,22 +1000,19 @@
       <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="K16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" t="s">
-        <v>69</v>
+      <c r="I16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -994,7 +1026,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -1006,17 +1038,17 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1024,10 +1056,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -1038,19 +1070,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1061,13 +1093,13 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1078,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <v>20</v>
@@ -1095,10 +1127,10 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1109,7 +1141,7 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>20</v>
@@ -1123,7 +1155,7 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29">
         <v>2048</v>
@@ -1134,13 +1166,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -1149,7 +1181,47 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/otherdoc/table設計.xlsx
+++ b/otherdoc/table設計.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>login_name</t>
     <phoneticPr fontId="1"/>
@@ -334,10 +334,6 @@
     <rPh sb="4" eb="5">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -764,8 +760,8 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13:M14"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -802,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -955,7 +951,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -967,7 +963,7 @@
         <v>51</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1001,7 +997,7 @@
         <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1038,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1099,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1141,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>20</v>
@@ -1166,7 +1162,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1181,47 +1177,47 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
       </c>
       <c r="D35">
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/otherdoc/table設計.xlsx
+++ b/otherdoc/table設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gittest\tamairefile\otherdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\otherdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>login_name</t>
     <phoneticPr fontId="1"/>
@@ -338,14 +338,6 @@
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -760,8 +752,8 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -798,7 +790,7 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -822,7 +814,7 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -951,7 +943,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -963,7 +955,7 @@
         <v>51</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -997,10 +989,10 @@
         <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1014,7 +1006,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1033,21 +1025,18 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1064,7 +1053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1081,7 +1070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1095,10 +1084,10 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1115,7 +1104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1129,7 +1118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1160,9 +1149,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1176,48 +1165,45 @@
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
         <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
       </c>
       <c r="D35">
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/otherdoc/table設計.xlsx
+++ b/otherdoc/table設計.xlsx
@@ -752,8 +752,8 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -951,6 +951,9 @@
       <c r="C14" t="s">
         <v>46</v>
       </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
@@ -967,6 +970,9 @@
       </c>
       <c r="C15" t="s">
         <v>46</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
       </c>
       <c r="J15" t="s">
         <v>52</v>

--- a/otherdoc/table設計.xlsx
+++ b/otherdoc/table設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\otherdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gittest\tamairefile\otherdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -316,10 +316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>res_identityno</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スレッド毎の数字</t>
     <rPh sb="4" eb="5">
       <t>ゴト</t>
@@ -416,6 +412,10 @@
   </si>
   <si>
     <t>theme_attribute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_identity_no</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -752,8 +752,8 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -790,7 +790,7 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -943,7 +943,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -958,7 +958,7 @@
         <v>51</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -995,7 +995,7 @@
         <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1061,10 +1061,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1118,7 +1118,7 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" t="s">
         <v>51</v>
@@ -1132,7 +1132,7 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>20</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1174,42 +1174,42 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
       </c>
       <c r="D35">
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
